--- a/Data/자재.xlsx
+++ b/Data/자재.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sample_python\InEstimate\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899F0400-0C4A-4DC5-89BF-C2778C187F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36617B9-9FC1-43E7-972B-DC2872BE3164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47880" yWindow="0" windowWidth="9810" windowHeight="15480" xr2:uid="{141B8306-B5EB-46EE-B6A0-35575F8AEA49}"/>
+    <workbookView xWindow="31590" yWindow="0" windowWidth="16275" windowHeight="15480" xr2:uid="{141B8306-B5EB-46EE-B6A0-35575F8AEA49}"/>
   </bookViews>
   <sheets>
     <sheet name="조명" sheetId="1" r:id="rId1"/>
@@ -522,7 +522,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B8"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
